--- a/Naive Bayes/data.xlsx
+++ b/Naive Bayes/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Assignments\Machine Learning\Forum 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BC12C0-7216-4A44-8F8C-979CFBAF5467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5DCA7E-D919-4C29-A343-A3F80A4A95E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF21162A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>gmat</t>
     </r>
@@ -35,10 +34,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF21162A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>gpa</t>
     </r>
@@ -46,73 +44,65 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF362F44"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>w</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF21162A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>o</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF362F44"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>r</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF21162A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>k  expe</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF362F44"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>r</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF21162A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>ie</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF362F44"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF21162A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>ce</t>
     </r>
@@ -120,10 +110,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF21162A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>admitted</t>
     </r>
@@ -137,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="###0;###0"/>
     <numFmt numFmtId="165" formatCode="###0.0;###0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -145,44 +134,33 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF362F44"/>
-      <name val="Courier New"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF21162A"/>
+      <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF4D3F34"/>
-      <name val="Courier New"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF362F44"/>
+      <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF4B4D59"/>
-      <name val="Courier New"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF4D3F34"/>
+      <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3B2323"/>
-      <name val="Courier New"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF4B4D59"/>
+      <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF21162A"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF362F44"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF3B2323"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,22 +241,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,10 +600,10 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -634,7 +612,7 @@
     <col min="5" max="5" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="4">
         <v>780</v>
       </c>
@@ -662,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="4">
         <v>750</v>
       </c>
@@ -676,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="4">
         <v>690</v>
       </c>
@@ -690,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="4">
         <v>710</v>
       </c>
@@ -704,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="4">
         <v>680</v>
       </c>
@@ -718,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="4">
         <v>730</v>
       </c>
@@ -732,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="4">
         <v>690</v>
       </c>
@@ -746,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="4">
         <v>720</v>
       </c>
@@ -760,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="4">
         <v>740</v>
       </c>
@@ -774,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="4">
         <v>690</v>
       </c>
@@ -788,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="4">
         <v>610</v>
       </c>
@@ -802,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="4">
         <v>690</v>
       </c>
@@ -816,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="4">
         <v>710</v>
       </c>
@@ -830,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="4">
         <v>680</v>
       </c>
@@ -844,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="4">
         <v>770</v>
       </c>
@@ -858,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="4">
         <v>610</v>
       </c>
@@ -872,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="8">
         <v>580</v>
       </c>
@@ -886,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="4">
         <v>650</v>
       </c>
@@ -900,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="8">
         <v>540</v>
       </c>
@@ -914,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="8">
         <v>590</v>
       </c>
@@ -928,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="4">
         <v>620</v>
       </c>
@@ -942,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="4">
         <v>600</v>
       </c>
@@ -956,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="8">
         <v>550</v>
       </c>
@@ -970,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="8">
         <v>550</v>
       </c>
@@ -984,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="8">
         <v>570</v>
       </c>
@@ -998,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="4">
         <v>670</v>
       </c>
@@ -1012,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="4">
         <v>660</v>
       </c>
@@ -1026,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="8">
         <v>580</v>
       </c>
@@ -1040,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="4">
         <v>650</v>
       </c>
@@ -1054,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="4">
         <v>660</v>
       </c>
@@ -1068,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="4">
         <v>640</v>
       </c>
@@ -1082,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="4">
         <v>620</v>
       </c>
@@ -1096,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="4">
         <v>660</v>
       </c>
@@ -1110,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="4">
         <v>660</v>
       </c>
@@ -1124,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="4">
         <v>680</v>
       </c>
@@ -1138,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="4">
         <v>650</v>
       </c>
@@ -1152,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="4">
         <v>670</v>
       </c>
@@ -1166,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="8">
         <v>580</v>
       </c>
@@ -1180,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="8">
         <v>590</v>
       </c>
@@ -1194,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="4">
         <v>690</v>
       </c>
@@ -1210,5 +1188,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>